--- a/export/sach.xlsx
+++ b/export/sach.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
   <si>
     <t>Mã</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>TT</t>
+    <t>SL</t>
   </si>
   <si>
     <t>1</t>
@@ -59,7 +59,7 @@
     <t>Tái bản lần thứ 11</t>
   </si>
   <si>
-    <t>Còn</t>
+    <t>9</t>
   </si>
   <si>
     <t>2</t>
@@ -68,6 +68,9 @@
     <t>Trạng Quỳnh tập 2</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
     <t>Tái bản 2023</t>
   </si>
   <si>
-    <t>Hết</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -170,9 +170,6 @@
     <t>Dịch bởi Hoàng Anh</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Văn học</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
   </si>
   <si>
     <t>Boxset, Chính truyện, Another side</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t xml:space="preserve"> Saekisan</t>
@@ -370,7 +364,7 @@
     <col min="5" max="5" width="40.1640625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="9.13671875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="44.30078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.3515625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="3.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -448,59 +442,59 @@
         <v>14</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -526,7 +520,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +546,7 @@
         <v>40</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +572,7 @@
         <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -604,38 +598,38 @@
         <v>51</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C10" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="D10" t="s" s="2">
+      <c r="E10" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="F10" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="G10" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H10" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>9</v>
@@ -644,120 +638,120 @@
         <v>10</v>
       </c>
       <c r="D11" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="G11" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>62</v>
-      </c>
       <c r="H11" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D12" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="G12" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="H12" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="F13" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="G13" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="G13" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="H13" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="G14" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G14" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H14" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>15</v>
@@ -765,28 +759,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>9</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="H16" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/export/sach.xlsx
+++ b/export/sach.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
   <si>
     <t>Mã</t>
   </si>
@@ -20,9 +20,6 @@
     <t>Loại sách</t>
   </si>
   <si>
-    <t>NXB</t>
-  </si>
-  <si>
     <t>Tác giả</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>Truyện</t>
   </si>
   <si>
-    <t>Kim Đồng</t>
-  </si>
-  <si>
     <t>Kim Khánh</t>
   </si>
   <si>
@@ -59,120 +53,111 @@
     <t>Tái bản lần thứ 11</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Trạng Quỳnh tập 2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Văn học tự sự</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Nhật ký trong tù</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>Tái bản</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Ánh</t>
+  </si>
+  <si>
+    <t>Tôi là Bêtô</t>
+  </si>
+  <si>
+    <t>85000</t>
+  </si>
+  <si>
+    <t>Tái bản 2023</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Trạng Quỳnh tập 3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Văn học Việt Nam</t>
+  </si>
+  <si>
+    <t>Y Ban</t>
+  </si>
+  <si>
+    <t>I am Đàn bà</t>
+  </si>
+  <si>
+    <t>99000</t>
+  </si>
+  <si>
+    <t>Xuất bản năm 1993</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Tiểu thuyết</t>
+  </si>
+  <si>
+    <t>JRR Tolkien</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings</t>
+  </si>
+  <si>
+    <t>210000</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Ane Riel</t>
+  </si>
+  <si>
+    <t>Nhựa cây</t>
+  </si>
+  <si>
+    <t>118000</t>
+  </si>
+  <si>
+    <t>Dịch bởi Hoàng Anh</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Trạng Quỳnh tập 2</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Văn học tự sự</t>
-  </si>
-  <si>
-    <t>Chính trị quốc gia</t>
-  </si>
-  <si>
-    <t>Hồ Chí Minh</t>
-  </si>
-  <si>
-    <t>Nhật ký trong tù</t>
-  </si>
-  <si>
-    <t>52000</t>
-  </si>
-  <si>
-    <t>Tái bản</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Trẻ</t>
-  </si>
-  <si>
-    <t>Nguyễn Nhật Ánh</t>
-  </si>
-  <si>
-    <t>Tôi là Bêtô</t>
-  </si>
-  <si>
-    <t>85000</t>
-  </si>
-  <si>
-    <t>Tái bản 2023</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Trạng Quỳnh tập 3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Văn học Việt Nam</t>
-  </si>
-  <si>
-    <t>Phụ Nữ</t>
-  </si>
-  <si>
-    <t>Y Ban</t>
-  </si>
-  <si>
-    <t>I am Đàn bà</t>
-  </si>
-  <si>
-    <t>99000</t>
-  </si>
-  <si>
-    <t>Xuất bản năm 1993</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Tiểu thuyết</t>
-  </si>
-  <si>
-    <t>JRR Tolkien</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings</t>
-  </si>
-  <si>
-    <t>210000</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Ane Riel</t>
-  </si>
-  <si>
-    <t>Nhựa cây</t>
-  </si>
-  <si>
-    <t>118000</t>
-  </si>
-  <si>
-    <t>Dịch bởi Hoàng Anh</t>
-  </si>
-  <si>
-    <t>Văn học</t>
-  </si>
-  <si>
     <t>Kanoh Arata</t>
   </si>
   <si>
@@ -197,9 +182,6 @@
     <t>Bìa cứng, sáng tác vào tháng 1 năm 2024</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Chu Chí Minh</t>
   </si>
   <si>
@@ -230,16 +212,16 @@
     <t>13</t>
   </si>
   <si>
-    <t>Conan Doy</t>
-  </si>
-  <si>
-    <t>Những vụ kỳ án của Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>158000</t>
-  </si>
-  <si>
-    <t>16+, có cảnh gây mất ngủ</t>
+    <t>Conan Doly</t>
+  </si>
+  <si>
+    <t>những vụ án của sherlock holmes</t>
+  </si>
+  <si>
+    <t>180000</t>
+  </si>
+  <si>
+    <t>Thích hợp độ tuổi 16+</t>
   </si>
   <si>
     <t>14</t>
@@ -264,6 +246,60 @@
   </si>
   <si>
     <t>Hiện đã có phim</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes quyển 1</t>
+  </si>
+  <si>
+    <t>115000</t>
+  </si>
+  <si>
+    <t>bìa cứng</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes quyển 2</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes quyển 3</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Kính vạn hoa</t>
+  </si>
+  <si>
+    <t>130000</t>
+  </si>
+  <si>
+    <t>bìa mềm</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Alex Banayan</t>
+  </si>
+  <si>
+    <t>Kẻ khôn đi lối khác</t>
+  </si>
+  <si>
+    <t>170000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bìa mềm </t>
   </si>
 </sst>
 </file>
@@ -351,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -359,12 +395,11 @@
   <cols>
     <col min="1" max="1" width="5.171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.15234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.71484375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="23.71484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="40.1640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.13671875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="44.30078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="3.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.71484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="36.47265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.13671875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="44.30078125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="3.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -389,398 +424,465 @@
       <c r="G1" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="E2" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="F2" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="G2" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>10</v>
-      </c>
       <c r="D3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="E3" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="F3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="E4" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="F4" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="G4" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s" s="2">
+      <c r="F5" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="G5" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>10</v>
-      </c>
       <c r="D6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="E6" t="s" s="2">
-        <v>33</v>
-      </c>
       <c r="F6" t="s" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="E7" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="F7" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="D7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="F8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s" s="2">
+      <c r="F17" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="G17" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="B18" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>18</v>
+      <c r="E18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
